--- a/3.프로젝트 보고/gantt_chart.xlsx
+++ b/3.프로젝트 보고/gantt_chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\code\CodeDoc\프로젝트 보고\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ai_x\lecNote\11_codedoc\CodeDoc\3.프로젝트 보고\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A1F8FA-7D19-42F5-91E7-1146021D233C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7806EB-0F65-4F14-AA31-A71F549C18A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,10 @@
   </si>
   <si>
     <t xml:space="preserve">    · 프론트엔드 웹 인터페이스 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같이 진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -640,6 +644,57 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,55 +710,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1054,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404BEBCD-E630-4A33-B6B1-91F3A11415F3}">
   <dimension ref="A1:CM86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="AP8" sqref="AP8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="AI16" sqref="AI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1072,87 +1082,87 @@
   <sheetData>
     <row r="1" spans="1:91" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:91" s="2" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="41"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="36"/>
     </row>
     <row r="3" spans="1:91" s="11" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="46"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="41"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
@@ -1209,54 +1219,54 @@
     </row>
     <row r="4" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="49" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="52" t="s">
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="52" t="s">
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="52" t="s">
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="54"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="49"/>
       <c r="AL4" s="23" t="s">
         <v>13</v>
       </c>
@@ -1316,7 +1326,7 @@
     </row>
     <row r="5" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="48"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="22">
         <v>24</v>
       </c>
@@ -1579,14 +1589,14 @@
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -2814,11 +2824,13 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
+      <c r="R21" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
@@ -2882,40 +2894,40 @@
         <v>23</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="33"/>
       <c r="AE23" s="2"/>
-      <c r="AF23" s="38"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="38"/>
-      <c r="AI23" s="38"/>
-      <c r="AJ23" s="38"/>
-      <c r="AK23" s="38"/>
+      <c r="AF23" s="33"/>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="33"/>
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="33"/>
+      <c r="AK23" s="33"/>
       <c r="AL23" s="13"/>
     </row>
     <row r="24" spans="1:91" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -3005,40 +3017,40 @@
         <v>37</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="38"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="33"/>
       <c r="AE26" s="2"/>
-      <c r="AF26" s="38"/>
-      <c r="AG26" s="38"/>
-      <c r="AH26" s="38"/>
-      <c r="AI26" s="38"/>
-      <c r="AJ26" s="38"/>
-      <c r="AK26" s="38"/>
+      <c r="AF26" s="33"/>
+      <c r="AG26" s="33"/>
+      <c r="AH26" s="33"/>
+      <c r="AI26" s="33"/>
+      <c r="AJ26" s="33"/>
+      <c r="AK26" s="33"/>
       <c r="AL26" s="13"/>
     </row>
     <row r="27" spans="1:91" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -3411,50 +3423,50 @@
     <row r="36" spans="2:38" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="34" t="s">
+      <c r="K36" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="35" t="s">
+      <c r="R36" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="52"/>
+      <c r="W36" s="52"/>
       <c r="X36" s="2"/>
-      <c r="Y36" s="36" t="s">
+      <c r="Y36" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="36"/>
-      <c r="AD36" s="36"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="53"/>
+      <c r="AD36" s="53"/>
       <c r="AE36" s="2"/>
-      <c r="AF36" s="37" t="s">
+      <c r="AF36" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="AG36" s="37"/>
-      <c r="AH36" s="37"/>
-      <c r="AI36" s="37"/>
-      <c r="AJ36" s="37"/>
-      <c r="AK36" s="37"/>
+      <c r="AG36" s="54"/>
+      <c r="AH36" s="54"/>
+      <c r="AI36" s="54"/>
+      <c r="AJ36" s="54"/>
+      <c r="AK36" s="54"/>
       <c r="AL36" s="2"/>
     </row>
     <row r="37" spans="2:38" x14ac:dyDescent="0.4">
@@ -5264,12 +5276,18 @@
       <c r="B86" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="AF23:AK23"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="Y23:AD23"/>
+  <mergeCells count="26">
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="K36:P36"/>
+    <mergeCell ref="R36:W36"/>
+    <mergeCell ref="Y36:AD36"/>
+    <mergeCell ref="AF36:AK36"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="Y26:AD26"/>
+    <mergeCell ref="AF26:AK26"/>
     <mergeCell ref="B2:AL2"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="C7:H7"/>
@@ -5280,16 +5298,11 @@
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="Y26:AD26"/>
-    <mergeCell ref="AF26:AK26"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="K36:P36"/>
-    <mergeCell ref="R36:W36"/>
-    <mergeCell ref="Y36:AD36"/>
-    <mergeCell ref="AF36:AK36"/>
+    <mergeCell ref="AF23:AK23"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="Y23:AD23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3.프로젝트 보고/gantt_chart.xlsx
+++ b/3.프로젝트 보고/gantt_chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ai_x\lecNote\11_codedoc\CodeDoc\3.프로젝트 보고\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7806EB-0F65-4F14-AA31-A71F549C18A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4E0862-078B-4916-8858-E9C3153ECAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,7 +544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -644,6 +644,27 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -695,26 +716,11 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1065,7 +1071,7 @@
   <dimension ref="A1:CM86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="AI16" sqref="AI16"/>
+      <selection activeCell="AP15" sqref="AP15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1082,87 +1088,87 @@
   <sheetData>
     <row r="1" spans="1:91" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:91" s="2" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="36"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="43"/>
     </row>
     <row r="3" spans="1:91" s="11" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="41"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="48"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
@@ -1219,54 +1225,54 @@
     </row>
     <row r="4" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="44" t="s">
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="47" t="s">
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="47" t="s">
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="47" t="s">
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48"/>
-      <c r="AK4" s="49"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="56"/>
       <c r="AL4" s="23" t="s">
         <v>13</v>
       </c>
@@ -1326,7 +1332,7 @@
     </row>
     <row r="5" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="43"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="22">
         <v>24</v>
       </c>
@@ -1589,14 +1595,14 @@
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -2076,9 +2082,9 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="32"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -2171,12 +2177,12 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -2264,12 +2270,12 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -2457,15 +2463,15 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
@@ -2824,15 +2830,15 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="56" t="s">
+      <c r="R21" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -2894,40 +2900,40 @@
         <v>23</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
       <c r="AE23" s="2"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="33"/>
-      <c r="AJ23" s="33"/>
-      <c r="AK23" s="33"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
+      <c r="AI23" s="40"/>
+      <c r="AJ23" s="40"/>
+      <c r="AK23" s="40"/>
       <c r="AL23" s="13"/>
     </row>
     <row r="24" spans="1:91" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -3017,40 +3023,40 @@
         <v>37</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
       <c r="AE26" s="2"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="33"/>
-      <c r="AI26" s="33"/>
-      <c r="AJ26" s="33"/>
-      <c r="AK26" s="33"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="40"/>
+      <c r="AI26" s="40"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="40"/>
       <c r="AL26" s="13"/>
     </row>
     <row r="27" spans="1:91" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -3423,50 +3429,50 @@
     <row r="36" spans="2:38" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="51" t="s">
+      <c r="K36" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="52" t="s">
+      <c r="R36" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
       <c r="X36" s="2"/>
-      <c r="Y36" s="53" t="s">
+      <c r="Y36" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="53"/>
-      <c r="AC36" s="53"/>
-      <c r="AD36" s="53"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
+      <c r="AB36" s="38"/>
+      <c r="AC36" s="38"/>
+      <c r="AD36" s="38"/>
       <c r="AE36" s="2"/>
-      <c r="AF36" s="54" t="s">
+      <c r="AF36" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AG36" s="54"/>
-      <c r="AH36" s="54"/>
-      <c r="AI36" s="54"/>
-      <c r="AJ36" s="54"/>
-      <c r="AK36" s="54"/>
+      <c r="AG36" s="39"/>
+      <c r="AH36" s="39"/>
+      <c r="AI36" s="39"/>
+      <c r="AJ36" s="39"/>
+      <c r="AK36" s="39"/>
       <c r="AL36" s="2"/>
     </row>
     <row r="37" spans="2:38" x14ac:dyDescent="0.4">
@@ -5277,17 +5283,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="K36:P36"/>
-    <mergeCell ref="R36:W36"/>
-    <mergeCell ref="Y36:AD36"/>
-    <mergeCell ref="AF36:AK36"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="Y26:AD26"/>
-    <mergeCell ref="AF26:AK26"/>
+    <mergeCell ref="AF23:AK23"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="Y23:AD23"/>
     <mergeCell ref="B2:AL2"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="C7:H7"/>
@@ -5298,11 +5298,17 @@
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="AF23:AK23"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="Y23:AD23"/>
+    <mergeCell ref="AF36:AK36"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="Y26:AD26"/>
+    <mergeCell ref="AF26:AK26"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="K36:P36"/>
+    <mergeCell ref="R36:W36"/>
+    <mergeCell ref="Y36:AD36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3.프로젝트 보고/gantt_chart.xlsx
+++ b/3.프로젝트 보고/gantt_chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ai_x\lecNote\11_codedoc\CodeDoc\3.프로젝트 보고\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\codedoc\CodeDoc\3.프로젝트 보고\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4E0862-078B-4916-8858-E9C3153ECAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5FE05A-AA8C-4542-B76D-AFAF3E73616B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  테스트 및 검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>심재성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,107 +82,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    · 데이터 소스 조사 및 수집 계획 수립</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  데이터 준비 및 기초 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    · 금융 데이터 수집 및 전처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    · 사용자 질문 데이터셋 구축</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    · 전체 시스템 통합 및 연동 테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    · 성능 최적화 및 버그 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    · 기본 LLM 연동 및 테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    · RAG 시스템 최적화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객 맞춤형 금융정보 챗봇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    · 주제선정, Gantt chart 작성, 일정관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    · Vector DB 구축</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    · FSKU 평가 문항 데이터 수집 및 전처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    · RAG 파이프라인 구축</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  핵심 시스템 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    · 프롬프트 설계 및 컨텍스트 분류 로직 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    · FSKU 평가 시스템 구현(객관식/주관식 답변 생성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  머신러닝 및 AI 모델 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    · 투자성향 분류 머신러닝 모델 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    · FSKU 앙상블 모델 구축</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    · LLM 기반 챗봇 대화 시스템 구현 및 파인튜닝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  시스템 통합 및 인프라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    · 백엔드 API 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    · 실시간 데이터 업데이트 파이프라인 구축</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    · 사용자 인터페이스 구현 및 개선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    · FSKU 정답률 검증 및 성능 테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    · 최종 시스템 통합 검증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -194,7 +90,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>같이 진행중</t>
+    <t xml:space="preserve">    · 프로젝트 기획 및 주제 선정과 기획안 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    · 아이디어 조사 및 요구 척도 조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  AI 모델 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    · 데이터 수집 및 전처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    · 탐색적 데이터 분석(EDA) 및 모델링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    · 머신러닝 모델 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    · 모델 성능 최적화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  LLM/RAG 챗봇시스템 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    · 주요 LLM 및 활용 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    · 금융 데이터 보안 및 전처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    · RAG 모델의 지식 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    · 성능평가문제 생성 및 성능개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    · 챗봇 시스템 구현완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  테스트 및 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    · 백엔드 API 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    · 최종 시스템 통합 및 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지능형 금융 상담 챗봇 시스템 및 금융상품 추천 AI 개발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,12 +238,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -291,12 +245,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,19 +316,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,7 +480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -554,112 +490,97 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -668,58 +589,82 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1068,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404BEBCD-E630-4A33-B6B1-91F3A11415F3}">
-  <dimension ref="A1:CM86"/>
+  <dimension ref="A1:CM77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="AP15" sqref="AP15"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="AN6" sqref="AN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1088,87 +1033,87 @@
   <sheetData>
     <row r="1" spans="1:91" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:91" s="2" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="43"/>
+      <c r="B2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="38"/>
     </row>
     <row r="3" spans="1:91" s="11" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
-      <c r="B3" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="48"/>
+      <c r="B3" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
@@ -1225,56 +1170,56 @@
     </row>
     <row r="4" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="51" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54" t="s">
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="54" t="s">
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="54" t="s">
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="23" t="s">
-        <v>13</v>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
@@ -1332,113 +1277,113 @@
     </row>
     <row r="5" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="22">
+      <c r="B5" s="45"/>
+      <c r="C5" s="21">
         <v>24</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>25</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>26</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>27</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <v>28</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <v>29</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="21">
         <v>30</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <v>31</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="21">
         <v>1</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="21">
         <v>2</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="21">
         <v>3</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="21">
         <v>4</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="21">
         <v>5</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="21">
         <v>6</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="21">
         <v>7</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="21">
         <v>8</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="21">
         <v>9</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="21">
         <v>10</v>
       </c>
-      <c r="U5" s="22">
+      <c r="U5" s="21">
         <v>11</v>
       </c>
-      <c r="V5" s="22">
+      <c r="V5" s="21">
         <v>12</v>
       </c>
-      <c r="W5" s="22">
+      <c r="W5" s="21">
         <v>13</v>
       </c>
-      <c r="X5" s="22">
+      <c r="X5" s="21">
         <v>14</v>
       </c>
-      <c r="Y5" s="22">
+      <c r="Y5" s="21">
         <v>15</v>
       </c>
-      <c r="Z5" s="22">
+      <c r="Z5" s="21">
         <v>16</v>
       </c>
-      <c r="AA5" s="22">
+      <c r="AA5" s="21">
         <v>17</v>
       </c>
-      <c r="AB5" s="22">
+      <c r="AB5" s="21">
         <v>18</v>
       </c>
-      <c r="AC5" s="22">
+      <c r="AC5" s="21">
         <v>19</v>
       </c>
-      <c r="AD5" s="22">
+      <c r="AD5" s="21">
         <v>20</v>
       </c>
-      <c r="AE5" s="22">
+      <c r="AE5" s="21">
         <v>21</v>
       </c>
-      <c r="AF5" s="22">
+      <c r="AF5" s="21">
         <v>22</v>
       </c>
-      <c r="AG5" s="22">
+      <c r="AG5" s="21">
         <v>23</v>
       </c>
-      <c r="AH5" s="22">
+      <c r="AH5" s="21">
         <v>24</v>
       </c>
-      <c r="AI5" s="22">
+      <c r="AI5" s="21">
         <v>25</v>
       </c>
-      <c r="AJ5" s="22">
+      <c r="AJ5" s="21">
         <v>26</v>
       </c>
-      <c r="AK5" s="22">
+      <c r="AK5" s="21">
         <v>27</v>
       </c>
-      <c r="AL5" s="22">
+      <c r="AL5" s="21">
         <v>28</v>
       </c>
       <c r="AM5" s="2"/>
@@ -1537,7 +1482,7 @@
       <c r="AK6" s="6"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="2"/>
-      <c r="AN6" s="19"/>
+      <c r="AN6" s="18"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
@@ -1593,16 +1538,16 @@
     <row r="7" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
+        <v>17</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -1688,7 +1633,7 @@
     <row r="8" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -1698,10 +1643,10 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
@@ -1783,7 +1728,7 @@
     <row r="9" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -1791,9 +1736,9 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="9"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1877,8 +1822,8 @@
     </row>
     <row r="10" spans="1:91" s="1" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="18" t="s">
-        <v>17</v>
+      <c r="B10" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -1972,8 +1917,8 @@
     </row>
     <row r="11" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="17" t="s">
-        <v>22</v>
+      <c r="B11" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -1986,14 +1931,14 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
@@ -2067,8 +2012,8 @@
     </row>
     <row r="12" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="17" t="s">
-        <v>18</v>
+      <c r="B12" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="2"/>
@@ -2081,16 +2026,16 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="27"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
@@ -2162,8 +2107,8 @@
     </row>
     <row r="13" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="17" t="s">
-        <v>26</v>
+      <c r="B13" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="2"/>
@@ -2177,19 +2122,19 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
@@ -2257,8 +2202,8 @@
     </row>
     <row r="14" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="17" t="s">
-        <v>27</v>
+      <c r="B14" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="2"/>
@@ -2270,12 +2215,12 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -2285,8 +2230,8 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -2352,8 +2297,8 @@
     </row>
     <row r="15" spans="1:91" s="1" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
-      <c r="B15" s="21" t="s">
-        <v>29</v>
+      <c r="B15" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="2"/>
@@ -2447,8 +2392,8 @@
     </row>
     <row r="16" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
-      <c r="B16" s="20" t="s">
-        <v>28</v>
+      <c r="B16" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="2"/>
@@ -2459,19 +2404,19 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
@@ -2542,8 +2487,8 @@
     </row>
     <row r="17" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
-      <c r="B17" s="20" t="s">
-        <v>19</v>
+      <c r="B17" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="2"/>
@@ -2556,12 +2501,12 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -2637,8 +2582,8 @@
     </row>
     <row r="18" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
-      <c r="B18" s="20" t="s">
-        <v>30</v>
+      <c r="B18" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="2"/>
@@ -2655,10 +2600,10 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -2730,9 +2675,10 @@
       <c r="CL18" s="2"/>
       <c r="CM18" s="2"/>
     </row>
-    <row r="19" spans="1:91" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="20" t="s">
-        <v>31</v>
+    <row r="19" spans="1:91" s="52" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="2"/>
@@ -2751,14 +2697,14 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
@@ -2770,12 +2716,66 @@
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="13"/>
-    </row>
-    <row r="20" spans="1:91" ht="25.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="2"/>
+      <c r="BM19" s="2"/>
+      <c r="BN19" s="2"/>
+      <c r="BO19" s="2"/>
+      <c r="BP19" s="2"/>
+      <c r="BQ19" s="2"/>
+      <c r="BR19" s="2"/>
+      <c r="BS19" s="2"/>
+      <c r="BT19" s="2"/>
+      <c r="BU19" s="2"/>
+      <c r="BV19" s="2"/>
+      <c r="BW19" s="2"/>
+      <c r="BX19" s="2"/>
+      <c r="BY19" s="2"/>
+      <c r="BZ19" s="2"/>
+      <c r="CA19" s="2"/>
+      <c r="CB19" s="2"/>
+      <c r="CC19" s="2"/>
+      <c r="CD19" s="2"/>
+      <c r="CE19" s="2"/>
+      <c r="CF19" s="2"/>
+      <c r="CG19" s="2"/>
+      <c r="CH19" s="2"/>
+      <c r="CI19" s="2"/>
+      <c r="CJ19" s="2"/>
+      <c r="CK19" s="2"/>
+      <c r="CL19" s="2"/>
+      <c r="CM19" s="2"/>
+    </row>
+    <row r="20" spans="1:91" s="52" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="12"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2784,6 +2784,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2799,7 +2800,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
+      <c r="AB20" s="26"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
@@ -2810,12 +2811,65 @@
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="13"/>
-    </row>
-    <row r="21" spans="1:91" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="2"/>
+      <c r="BM20" s="2"/>
+      <c r="BN20" s="2"/>
+      <c r="BO20" s="2"/>
+      <c r="BP20" s="2"/>
+      <c r="BQ20" s="2"/>
+      <c r="BR20" s="2"/>
+      <c r="BS20" s="2"/>
+      <c r="BT20" s="2"/>
+      <c r="BU20" s="2"/>
+      <c r="BV20" s="2"/>
+      <c r="BW20" s="2"/>
+      <c r="BX20" s="2"/>
+      <c r="BY20" s="2"/>
+      <c r="BZ20" s="2"/>
+      <c r="CA20" s="2"/>
+      <c r="CB20" s="2"/>
+      <c r="CC20" s="2"/>
+      <c r="CD20" s="2"/>
+      <c r="CE20" s="2"/>
+      <c r="CF20" s="2"/>
+      <c r="CG20" s="2"/>
+      <c r="CH20" s="2"/>
+      <c r="CI20" s="2"/>
+      <c r="CJ20" s="2"/>
+      <c r="CK20" s="2"/>
+      <c r="CL20" s="2"/>
+      <c r="CM20" s="2"/>
+    </row>
+    <row r="21" spans="1:91" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="12"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2830,15 +2884,13 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -2854,9 +2906,9 @@
       <c r="AK21" s="2"/>
       <c r="AL21" s="13"/>
     </row>
-    <row r="22" spans="1:91" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="26" t="s">
-        <v>34</v>
+    <row r="22" spans="1:91" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="2"/>
@@ -2895,52 +2947,52 @@
       <c r="AK22" s="2"/>
       <c r="AL22" s="13"/>
     </row>
-    <row r="23" spans="1:91" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="25" t="s">
-        <v>23</v>
+    <row r="23" spans="1:91" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="40"/>
-      <c r="AG23" s="40"/>
-      <c r="AH23" s="40"/>
-      <c r="AI23" s="40"/>
-      <c r="AJ23" s="40"/>
-      <c r="AK23" s="40"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="60"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="61"/>
+      <c r="AG23" s="58"/>
+      <c r="AH23" s="58"/>
+      <c r="AI23" s="58"/>
+      <c r="AJ23" s="58"/>
+      <c r="AK23" s="58"/>
       <c r="AL23" s="13"/>
     </row>
-    <row r="24" spans="1:91" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="2"/>
+    <row r="24" spans="1:91" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="12"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2967,144 +3019,148 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
-      <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="13"/>
     </row>
-    <row r="25" spans="1:91" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="2"/>
-      <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
-      <c r="AK25" s="2"/>
-      <c r="AL25" s="13"/>
-    </row>
-    <row r="26" spans="1:91" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
+    <row r="25" spans="1:91" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="55"/>
+      <c r="AK25" s="56"/>
+      <c r="AL25" s="57"/>
+    </row>
+    <row r="26" spans="1:91" x14ac:dyDescent="0.4">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="40"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
-      <c r="AF26" s="40"/>
-      <c r="AG26" s="40"/>
-      <c r="AH26" s="40"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="40"/>
-      <c r="AL26" s="13"/>
-    </row>
-    <row r="27" spans="1:91" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+    </row>
+    <row r="27" spans="1:91" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
+      <c r="K27" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
       <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
+      <c r="R27" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
       <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
+      <c r="Y27" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="33"/>
       <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="2"/>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="2"/>
-      <c r="AK27" s="2"/>
-      <c r="AL27" s="13"/>
-    </row>
-    <row r="28" spans="1:91" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="12"/>
+      <c r="AF27" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="34"/>
+      <c r="AK27" s="34"/>
+      <c r="AL27" s="2"/>
+    </row>
+    <row r="28" spans="1:91" x14ac:dyDescent="0.4">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -3139,13 +3195,11 @@
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
-      <c r="AL28" s="13"/>
-    </row>
-    <row r="29" spans="1:91" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="12"/>
+      <c r="AL28" s="2"/>
+    </row>
+    <row r="29" spans="1:91" x14ac:dyDescent="0.4">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -3180,13 +3234,11 @@
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
       <c r="AK29" s="2"/>
-      <c r="AL29" s="13"/>
-    </row>
-    <row r="30" spans="1:91" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="12"/>
+      <c r="AL29" s="2"/>
+    </row>
+    <row r="30" spans="1:91" x14ac:dyDescent="0.4">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -3221,13 +3273,11 @@
       <c r="AI30" s="2"/>
       <c r="AJ30" s="2"/>
       <c r="AK30" s="2"/>
-      <c r="AL30" s="13"/>
-    </row>
-    <row r="31" spans="1:91" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="12"/>
+      <c r="AL30" s="2"/>
+    </row>
+    <row r="31" spans="1:91" x14ac:dyDescent="0.4">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -3262,13 +3312,11 @@
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
-      <c r="AL31" s="13"/>
-    </row>
-    <row r="32" spans="1:91" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="12"/>
+      <c r="AL31" s="2"/>
+    </row>
+    <row r="32" spans="1:91" x14ac:dyDescent="0.4">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3303,13 +3351,11 @@
       <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
-      <c r="AL32" s="13"/>
-    </row>
-    <row r="33" spans="2:38" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="12"/>
+      <c r="AL32" s="2"/>
+    </row>
+    <row r="33" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -3344,48 +3390,46 @@
       <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
-      <c r="AL33" s="13"/>
-    </row>
-    <row r="34" spans="2:38" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="15"/>
-      <c r="Z34" s="15"/>
-      <c r="AA34" s="15"/>
-      <c r="AB34" s="15"/>
-      <c r="AC34" s="15"/>
-      <c r="AD34" s="15"/>
-      <c r="AE34" s="15"/>
-      <c r="AF34" s="15"/>
-      <c r="AG34" s="15"/>
-      <c r="AH34" s="15"/>
-      <c r="AI34" s="15"/>
-      <c r="AJ34" s="15"/>
-      <c r="AK34" s="15"/>
-      <c r="AL34" s="16"/>
+      <c r="AL33" s="2"/>
+    </row>
+    <row r="34" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
     </row>
     <row r="35" spans="2:38" x14ac:dyDescent="0.4">
       <c r="B35" s="2"/>
@@ -3426,53 +3470,43 @@
       <c r="AK35" s="2"/>
       <c r="AL35" s="2"/>
     </row>
-    <row r="36" spans="2:38" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:38" x14ac:dyDescent="0.4">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
       <c r="X36" s="2"/>
-      <c r="Y36" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="38"/>
-      <c r="AB36" s="38"/>
-      <c r="AC36" s="38"/>
-      <c r="AD36" s="38"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
-      <c r="AF36" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG36" s="39"/>
-      <c r="AH36" s="39"/>
-      <c r="AI36" s="39"/>
-      <c r="AJ36" s="39"/>
-      <c r="AK36" s="39"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
     </row>
     <row r="37" spans="2:38" x14ac:dyDescent="0.4">
@@ -4920,374 +4954,18 @@
     </row>
     <row r="74" spans="2:38" x14ac:dyDescent="0.4">
       <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
-      <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="2"/>
-      <c r="X74" s="2"/>
-      <c r="Y74" s="2"/>
-      <c r="Z74" s="2"/>
-      <c r="AA74" s="2"/>
-      <c r="AB74" s="2"/>
-      <c r="AC74" s="2"/>
-      <c r="AD74" s="2"/>
-      <c r="AE74" s="2"/>
-      <c r="AF74" s="2"/>
-      <c r="AG74" s="2"/>
-      <c r="AH74" s="2"/>
-      <c r="AI74" s="2"/>
-      <c r="AJ74" s="2"/>
-      <c r="AK74" s="2"/>
-      <c r="AL74" s="2"/>
     </row>
     <row r="75" spans="2:38" x14ac:dyDescent="0.4">
       <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
-      <c r="AA75" s="2"/>
-      <c r="AB75" s="2"/>
-      <c r="AC75" s="2"/>
-      <c r="AD75" s="2"/>
-      <c r="AE75" s="2"/>
-      <c r="AF75" s="2"/>
-      <c r="AG75" s="2"/>
-      <c r="AH75" s="2"/>
-      <c r="AI75" s="2"/>
-      <c r="AJ75" s="2"/>
-      <c r="AK75" s="2"/>
-      <c r="AL75" s="2"/>
     </row>
     <row r="76" spans="2:38" x14ac:dyDescent="0.4">
       <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
-      <c r="AA76" s="2"/>
-      <c r="AB76" s="2"/>
-      <c r="AC76" s="2"/>
-      <c r="AD76" s="2"/>
-      <c r="AE76" s="2"/>
-      <c r="AF76" s="2"/>
-      <c r="AG76" s="2"/>
-      <c r="AH76" s="2"/>
-      <c r="AI76" s="2"/>
-      <c r="AJ76" s="2"/>
-      <c r="AK76" s="2"/>
-      <c r="AL76" s="2"/>
     </row>
     <row r="77" spans="2:38" x14ac:dyDescent="0.4">
       <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
-      <c r="AA77" s="2"/>
-      <c r="AB77" s="2"/>
-      <c r="AC77" s="2"/>
-      <c r="AD77" s="2"/>
-      <c r="AE77" s="2"/>
-      <c r="AF77" s="2"/>
-      <c r="AG77" s="2"/>
-      <c r="AH77" s="2"/>
-      <c r="AI77" s="2"/>
-      <c r="AJ77" s="2"/>
-      <c r="AK77" s="2"/>
-      <c r="AL77" s="2"/>
-    </row>
-    <row r="78" spans="2:38" x14ac:dyDescent="0.4">
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
-      <c r="Z78" s="2"/>
-      <c r="AA78" s="2"/>
-      <c r="AB78" s="2"/>
-      <c r="AC78" s="2"/>
-      <c r="AD78" s="2"/>
-      <c r="AE78" s="2"/>
-      <c r="AF78" s="2"/>
-      <c r="AG78" s="2"/>
-      <c r="AH78" s="2"/>
-      <c r="AI78" s="2"/>
-      <c r="AJ78" s="2"/>
-      <c r="AK78" s="2"/>
-      <c r="AL78" s="2"/>
-    </row>
-    <row r="79" spans="2:38" x14ac:dyDescent="0.4">
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-      <c r="Z79" s="2"/>
-      <c r="AA79" s="2"/>
-      <c r="AB79" s="2"/>
-      <c r="AC79" s="2"/>
-      <c r="AD79" s="2"/>
-      <c r="AE79" s="2"/>
-      <c r="AF79" s="2"/>
-      <c r="AG79" s="2"/>
-      <c r="AH79" s="2"/>
-      <c r="AI79" s="2"/>
-      <c r="AJ79" s="2"/>
-      <c r="AK79" s="2"/>
-      <c r="AL79" s="2"/>
-    </row>
-    <row r="80" spans="2:38" x14ac:dyDescent="0.4">
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="2"/>
-      <c r="X80" s="2"/>
-      <c r="Y80" s="2"/>
-      <c r="Z80" s="2"/>
-      <c r="AA80" s="2"/>
-      <c r="AB80" s="2"/>
-      <c r="AC80" s="2"/>
-      <c r="AD80" s="2"/>
-      <c r="AE80" s="2"/>
-      <c r="AF80" s="2"/>
-      <c r="AG80" s="2"/>
-      <c r="AH80" s="2"/>
-      <c r="AI80" s="2"/>
-      <c r="AJ80" s="2"/>
-      <c r="AK80" s="2"/>
-      <c r="AL80" s="2"/>
-    </row>
-    <row r="81" spans="2:38" x14ac:dyDescent="0.4">
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
-      <c r="V81" s="2"/>
-      <c r="W81" s="2"/>
-      <c r="X81" s="2"/>
-      <c r="Y81" s="2"/>
-      <c r="Z81" s="2"/>
-      <c r="AA81" s="2"/>
-      <c r="AB81" s="2"/>
-      <c r="AC81" s="2"/>
-      <c r="AD81" s="2"/>
-      <c r="AE81" s="2"/>
-      <c r="AF81" s="2"/>
-      <c r="AG81" s="2"/>
-      <c r="AH81" s="2"/>
-      <c r="AI81" s="2"/>
-      <c r="AJ81" s="2"/>
-      <c r="AK81" s="2"/>
-      <c r="AL81" s="2"/>
-    </row>
-    <row r="82" spans="2:38" x14ac:dyDescent="0.4">
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
-      <c r="V82" s="2"/>
-      <c r="W82" s="2"/>
-      <c r="X82" s="2"/>
-      <c r="Y82" s="2"/>
-      <c r="Z82" s="2"/>
-      <c r="AA82" s="2"/>
-      <c r="AB82" s="2"/>
-      <c r="AC82" s="2"/>
-      <c r="AD82" s="2"/>
-      <c r="AE82" s="2"/>
-      <c r="AF82" s="2"/>
-      <c r="AG82" s="2"/>
-      <c r="AH82" s="2"/>
-      <c r="AI82" s="2"/>
-      <c r="AJ82" s="2"/>
-      <c r="AK82" s="2"/>
-      <c r="AL82" s="2"/>
-    </row>
-    <row r="83" spans="2:38" x14ac:dyDescent="0.4">
-      <c r="B83" s="2"/>
-    </row>
-    <row r="84" spans="2:38" x14ac:dyDescent="0.4">
-      <c r="B84" s="2"/>
-    </row>
-    <row r="85" spans="2:38" x14ac:dyDescent="0.4">
-      <c r="B85" s="2"/>
-    </row>
-    <row r="86" spans="2:38" x14ac:dyDescent="0.4">
-      <c r="B86" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="AF23:AK23"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="Y23:AD23"/>
+  <mergeCells count="18">
     <mergeCell ref="B2:AL2"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="C7:H7"/>
@@ -5298,17 +4976,14 @@
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="AF36:AK36"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="Y26:AD26"/>
-    <mergeCell ref="AF26:AK26"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="K36:P36"/>
-    <mergeCell ref="R36:W36"/>
-    <mergeCell ref="Y36:AD36"/>
+    <mergeCell ref="AF27:AK27"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="Y27:AD27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3.프로젝트 보고/gantt_chart.xlsx
+++ b/3.프로젝트 보고/gantt_chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\codedoc\CodeDoc\3.프로젝트 보고\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5FE05A-AA8C-4542-B76D-AFAF3E73616B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02D8C87-478C-44FD-85AB-D176907B5D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,7 +165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +213,23 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -480,7 +497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,12 +507,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -529,21 +540,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -553,12 +552,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -571,6 +564,96 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -583,12 +666,6 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,12 +675,6 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -636,36 +707,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404BEBCD-E630-4A33-B6B1-91F3A11415F3}">
-  <dimension ref="A1:CM77"/>
+  <dimension ref="A1:CM93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="AN6" sqref="AN6"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1033,87 +1074,87 @@
   <sheetData>
     <row r="1" spans="1:91" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:91" s="2" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="38"/>
-    </row>
-    <row r="3" spans="1:91" s="11" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="58"/>
+    </row>
+    <row r="3" spans="1:91" s="9" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="61"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
@@ -1170,55 +1211,55 @@
     </row>
     <row r="4" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="46" t="s">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="49" t="s">
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="49" t="s">
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="49" t="s">
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="51"/>
-      <c r="AL4" s="22" t="s">
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="AM4" s="2"/>
@@ -1277,113 +1318,113 @@
     </row>
     <row r="5" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="21">
+      <c r="B5" s="63"/>
+      <c r="C5" s="15">
         <v>24</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="15">
         <v>25</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="15">
         <v>26</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="15">
         <v>27</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="15">
         <v>28</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="15">
         <v>29</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="15">
         <v>30</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="15">
         <v>31</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="15">
         <v>1</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="15">
         <v>2</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="15">
         <v>3</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="15">
         <v>4</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="15">
         <v>5</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="15">
         <v>6</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="15">
         <v>7</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="15">
         <v>8</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="15">
         <v>9</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T5" s="15">
         <v>10</v>
       </c>
-      <c r="U5" s="21">
+      <c r="U5" s="15">
         <v>11</v>
       </c>
-      <c r="V5" s="21">
+      <c r="V5" s="15">
         <v>12</v>
       </c>
-      <c r="W5" s="21">
+      <c r="W5" s="15">
         <v>13</v>
       </c>
-      <c r="X5" s="21">
+      <c r="X5" s="15">
         <v>14</v>
       </c>
-      <c r="Y5" s="21">
+      <c r="Y5" s="15">
         <v>15</v>
       </c>
-      <c r="Z5" s="21">
+      <c r="Z5" s="15">
         <v>16</v>
       </c>
-      <c r="AA5" s="21">
+      <c r="AA5" s="15">
         <v>17</v>
       </c>
-      <c r="AB5" s="21">
+      <c r="AB5" s="15">
         <v>18</v>
       </c>
-      <c r="AC5" s="21">
+      <c r="AC5" s="15">
         <v>19</v>
       </c>
-      <c r="AD5" s="21">
+      <c r="AD5" s="15">
         <v>20</v>
       </c>
-      <c r="AE5" s="21">
+      <c r="AE5" s="15">
         <v>21</v>
       </c>
-      <c r="AF5" s="21">
+      <c r="AF5" s="15">
         <v>22</v>
       </c>
-      <c r="AG5" s="21">
+      <c r="AG5" s="15">
         <v>23</v>
       </c>
-      <c r="AH5" s="21">
+      <c r="AH5" s="15">
         <v>24</v>
       </c>
-      <c r="AI5" s="21">
+      <c r="AI5" s="15">
         <v>25</v>
       </c>
-      <c r="AJ5" s="21">
+      <c r="AJ5" s="15">
         <v>26</v>
       </c>
-      <c r="AK5" s="21">
+      <c r="AK5" s="15">
         <v>27</v>
       </c>
-      <c r="AL5" s="21">
+      <c r="AL5" s="15">
         <v>28</v>
       </c>
       <c r="AM5" s="2"/>
@@ -1440,49 +1481,49 @@
       <c r="CL5" s="2"/>
       <c r="CM5" s="2"/>
     </row>
-    <row r="6" spans="1:91" s="1" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:91" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="5"/>
       <c r="AM6" s="2"/>
-      <c r="AN6" s="18"/>
+      <c r="AN6" s="14"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
@@ -1535,47 +1576,47 @@
       <c r="CL6" s="2"/>
       <c r="CM6" s="2"/>
     </row>
-    <row r="7" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:91" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="10"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="8"/>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
@@ -1630,47 +1671,45 @@
       <c r="CL7" s="2"/>
       <c r="CM7" s="2"/>
     </row>
-    <row r="8" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:91" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="10"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="8"/>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
@@ -1725,47 +1764,47 @@
       <c r="CL8" s="2"/>
       <c r="CM8" s="2"/>
     </row>
-    <row r="9" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:91" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="10"/>
+      <c r="B9" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="8"/>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
@@ -1820,47 +1859,45 @@
       <c r="CL9" s="2"/>
       <c r="CM9" s="2"/>
     </row>
-    <row r="10" spans="1:91" s="1" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:91" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="10"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="8"/>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
@@ -1915,47 +1952,47 @@
       <c r="CL10" s="2"/>
       <c r="CM10" s="2"/>
     </row>
-    <row r="11" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:91" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="10"/>
+      <c r="B11" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="8"/>
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
@@ -2010,47 +2047,45 @@
       <c r="CL11" s="2"/>
       <c r="CM11" s="2"/>
     </row>
-    <row r="12" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:91" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
-      <c r="AK12" s="2"/>
-      <c r="AL12" s="13"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="8"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -2105,47 +2140,47 @@
       <c r="CL12" s="2"/>
       <c r="CM12" s="2"/>
     </row>
-    <row r="13" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:91" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="13"/>
+      <c r="B13" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="8"/>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
@@ -2200,47 +2235,47 @@
       <c r="CL13" s="2"/>
       <c r="CM13" s="2"/>
     </row>
-    <row r="14" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:91" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
-      <c r="AK14" s="2"/>
-      <c r="AL14" s="13"/>
+      <c r="B14" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="8"/>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
@@ -2295,47 +2330,45 @@
       <c r="CL14" s="2"/>
       <c r="CM14" s="2"/>
     </row>
-    <row r="15" spans="1:91" s="1" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:91" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
-      <c r="B15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" s="2"/>
-      <c r="AL15" s="13"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="8"/>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
@@ -2390,47 +2423,47 @@
       <c r="CL15" s="2"/>
       <c r="CM15" s="2"/>
     </row>
-    <row r="16" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:91" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
-      <c r="B16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="13"/>
+      <c r="B16" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="8"/>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
@@ -2485,47 +2518,45 @@
       <c r="CL16" s="2"/>
       <c r="CM16" s="2"/>
     </row>
-    <row r="17" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:91" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
-      <c r="B17" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
-      <c r="AL17" s="13"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="8"/>
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
@@ -2580,47 +2611,47 @@
       <c r="CL17" s="2"/>
       <c r="CM17" s="2"/>
     </row>
-    <row r="18" spans="1:91" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:91" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
-      <c r="B18" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" s="2"/>
-      <c r="AL18" s="13"/>
+      <c r="B18" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="8"/>
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
@@ -2675,47 +2706,45 @@
       <c r="CL18" s="2"/>
       <c r="CM18" s="2"/>
     </row>
-    <row r="19" spans="1:91" s="52" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:91" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
-      <c r="B19" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="13"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="8"/>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
@@ -2770,47 +2799,47 @@
       <c r="CL19" s="2"/>
       <c r="CM19" s="2"/>
     </row>
-    <row r="20" spans="1:91" s="52" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:91" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
-      <c r="B20" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" s="2"/>
-      <c r="AL20" s="13"/>
+      <c r="B20" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="8"/>
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
@@ -2865,52 +2894,105 @@
       <c r="CL20" s="2"/>
       <c r="CM20" s="2"/>
     </row>
-    <row r="21" spans="1:91" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
-      <c r="AI21" s="2"/>
-      <c r="AJ21" s="2"/>
-      <c r="AK21" s="2"/>
-      <c r="AL21" s="13"/>
-    </row>
-    <row r="22" spans="1:91" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="12"/>
+    <row r="21" spans="1:91" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="2"/>
+      <c r="BG21" s="2"/>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="2"/>
+      <c r="BK21" s="2"/>
+      <c r="BL21" s="2"/>
+      <c r="BM21" s="2"/>
+      <c r="BN21" s="2"/>
+      <c r="BO21" s="2"/>
+      <c r="BP21" s="2"/>
+      <c r="BQ21" s="2"/>
+      <c r="BR21" s="2"/>
+      <c r="BS21" s="2"/>
+      <c r="BT21" s="2"/>
+      <c r="BU21" s="2"/>
+      <c r="BV21" s="2"/>
+      <c r="BW21" s="2"/>
+      <c r="BX21" s="2"/>
+      <c r="BY21" s="2"/>
+      <c r="BZ21" s="2"/>
+      <c r="CA21" s="2"/>
+      <c r="CB21" s="2"/>
+      <c r="CC21" s="2"/>
+      <c r="CD21" s="2"/>
+      <c r="CE21" s="2"/>
+      <c r="CF21" s="2"/>
+      <c r="CG21" s="2"/>
+      <c r="CH21" s="2"/>
+      <c r="CI21" s="2"/>
+      <c r="CJ21" s="2"/>
+      <c r="CK21" s="2"/>
+      <c r="CL21" s="2"/>
+      <c r="CM21" s="2"/>
+    </row>
+    <row r="22" spans="1:91" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="10"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2930,7 +3012,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
+      <c r="W22" s="35"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
@@ -2945,54 +3027,160 @@
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
-      <c r="AL22" s="13"/>
-    </row>
-    <row r="23" spans="1:91" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="2"/>
+      <c r="BH22" s="2"/>
+      <c r="BI22" s="2"/>
+      <c r="BJ22" s="2"/>
+      <c r="BK22" s="2"/>
+      <c r="BL22" s="2"/>
+      <c r="BM22" s="2"/>
+      <c r="BN22" s="2"/>
+      <c r="BO22" s="2"/>
+      <c r="BP22" s="2"/>
+      <c r="BQ22" s="2"/>
+      <c r="BR22" s="2"/>
+      <c r="BS22" s="2"/>
+      <c r="BT22" s="2"/>
+      <c r="BU22" s="2"/>
+      <c r="BV22" s="2"/>
+      <c r="BW22" s="2"/>
+      <c r="BX22" s="2"/>
+      <c r="BY22" s="2"/>
+      <c r="BZ22" s="2"/>
+      <c r="CA22" s="2"/>
+      <c r="CB22" s="2"/>
+      <c r="CC22" s="2"/>
+      <c r="CD22" s="2"/>
+      <c r="CE22" s="2"/>
+      <c r="CF22" s="2"/>
+      <c r="CG22" s="2"/>
+      <c r="CH22" s="2"/>
+      <c r="CI22" s="2"/>
+      <c r="CJ22" s="2"/>
+      <c r="CK22" s="2"/>
+      <c r="CL22" s="2"/>
+      <c r="CM22" s="2"/>
+    </row>
+    <row r="23" spans="1:91" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="60"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="61"/>
-      <c r="AG23" s="58"/>
-      <c r="AH23" s="58"/>
-      <c r="AI23" s="58"/>
-      <c r="AJ23" s="58"/>
-      <c r="AK23" s="58"/>
-      <c r="AL23" s="13"/>
-    </row>
-    <row r="24" spans="1:91" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="12"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="2"/>
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="2"/>
+      <c r="BM23" s="2"/>
+      <c r="BN23" s="2"/>
+      <c r="BO23" s="2"/>
+      <c r="BP23" s="2"/>
+      <c r="BQ23" s="2"/>
+      <c r="BR23" s="2"/>
+      <c r="BS23" s="2"/>
+      <c r="BT23" s="2"/>
+      <c r="BU23" s="2"/>
+      <c r="BV23" s="2"/>
+      <c r="BW23" s="2"/>
+      <c r="BX23" s="2"/>
+      <c r="BY23" s="2"/>
+      <c r="BZ23" s="2"/>
+      <c r="CA23" s="2"/>
+      <c r="CB23" s="2"/>
+      <c r="CC23" s="2"/>
+      <c r="CD23" s="2"/>
+      <c r="CE23" s="2"/>
+      <c r="CF23" s="2"/>
+      <c r="CG23" s="2"/>
+      <c r="CH23" s="2"/>
+      <c r="CI23" s="2"/>
+      <c r="CJ23" s="2"/>
+      <c r="CK23" s="2"/>
+      <c r="CL23" s="2"/>
+      <c r="CM23" s="2"/>
+    </row>
+    <row r="24" spans="1:91" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -3019,60 +3207,168 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="27"/>
-      <c r="AJ24" s="27"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
-      <c r="AL24" s="13"/>
-    </row>
-    <row r="25" spans="1:91" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="15"/>
-      <c r="AI25" s="15"/>
-      <c r="AJ25" s="55"/>
-      <c r="AK25" s="56"/>
-      <c r="AL25" s="57"/>
-    </row>
-    <row r="26" spans="1:91" x14ac:dyDescent="0.4">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="2"/>
+      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
+      <c r="BJ24" s="2"/>
+      <c r="BK24" s="2"/>
+      <c r="BL24" s="2"/>
+      <c r="BM24" s="2"/>
+      <c r="BN24" s="2"/>
+      <c r="BO24" s="2"/>
+      <c r="BP24" s="2"/>
+      <c r="BQ24" s="2"/>
+      <c r="BR24" s="2"/>
+      <c r="BS24" s="2"/>
+      <c r="BT24" s="2"/>
+      <c r="BU24" s="2"/>
+      <c r="BV24" s="2"/>
+      <c r="BW24" s="2"/>
+      <c r="BX24" s="2"/>
+      <c r="BY24" s="2"/>
+      <c r="BZ24" s="2"/>
+      <c r="CA24" s="2"/>
+      <c r="CB24" s="2"/>
+      <c r="CC24" s="2"/>
+      <c r="CD24" s="2"/>
+      <c r="CE24" s="2"/>
+      <c r="CF24" s="2"/>
+      <c r="CG24" s="2"/>
+      <c r="CH24" s="2"/>
+      <c r="CI24" s="2"/>
+      <c r="CJ24" s="2"/>
+      <c r="CK24" s="2"/>
+      <c r="CL24" s="2"/>
+      <c r="CM24" s="2"/>
+    </row>
+    <row r="25" spans="1:91" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="2"/>
+      <c r="BJ25" s="2"/>
+      <c r="BK25" s="2"/>
+      <c r="BL25" s="2"/>
+      <c r="BM25" s="2"/>
+      <c r="BN25" s="2"/>
+      <c r="BO25" s="2"/>
+      <c r="BP25" s="2"/>
+      <c r="BQ25" s="2"/>
+      <c r="BR25" s="2"/>
+      <c r="BS25" s="2"/>
+      <c r="BT25" s="2"/>
+      <c r="BU25" s="2"/>
+      <c r="BV25" s="2"/>
+      <c r="BW25" s="2"/>
+      <c r="BX25" s="2"/>
+      <c r="BY25" s="2"/>
+      <c r="BZ25" s="2"/>
+      <c r="CA25" s="2"/>
+      <c r="CB25" s="2"/>
+      <c r="CC25" s="2"/>
+      <c r="CD25" s="2"/>
+      <c r="CE25" s="2"/>
+      <c r="CF25" s="2"/>
+      <c r="CG25" s="2"/>
+      <c r="CH25" s="2"/>
+      <c r="CI25" s="2"/>
+      <c r="CJ25" s="2"/>
+      <c r="CK25" s="2"/>
+      <c r="CL25" s="2"/>
+      <c r="CM25" s="2"/>
+    </row>
+    <row r="26" spans="1:91" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -3082,12 +3378,12 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -3107,60 +3403,160 @@
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
-      <c r="AL26" s="2"/>
-    </row>
-    <row r="27" spans="1:91" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="2"/>
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="2"/>
+      <c r="BJ26" s="2"/>
+      <c r="BK26" s="2"/>
+      <c r="BL26" s="2"/>
+      <c r="BM26" s="2"/>
+      <c r="BN26" s="2"/>
+      <c r="BO26" s="2"/>
+      <c r="BP26" s="2"/>
+      <c r="BQ26" s="2"/>
+      <c r="BR26" s="2"/>
+      <c r="BS26" s="2"/>
+      <c r="BT26" s="2"/>
+      <c r="BU26" s="2"/>
+      <c r="BV26" s="2"/>
+      <c r="BW26" s="2"/>
+      <c r="BX26" s="2"/>
+      <c r="BY26" s="2"/>
+      <c r="BZ26" s="2"/>
+      <c r="CA26" s="2"/>
+      <c r="CB26" s="2"/>
+      <c r="CC26" s="2"/>
+      <c r="CD26" s="2"/>
+      <c r="CE26" s="2"/>
+      <c r="CF26" s="2"/>
+      <c r="CG26" s="2"/>
+      <c r="CH26" s="2"/>
+      <c r="CI26" s="2"/>
+      <c r="CJ26" s="2"/>
+      <c r="CK26" s="2"/>
+      <c r="CL26" s="2"/>
+      <c r="CM26" s="2"/>
+    </row>
+    <row r="27" spans="1:91" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2"/>
+      <c r="B27" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
       <c r="X27" s="2"/>
-      <c r="Y27" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
-      <c r="AF27" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG27" s="34"/>
-      <c r="AH27" s="34"/>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="34"/>
-      <c r="AK27" s="34"/>
-      <c r="AL27" s="2"/>
-    </row>
-    <row r="28" spans="1:91" x14ac:dyDescent="0.4">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="2"/>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="2"/>
+      <c r="BD27" s="2"/>
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="2"/>
+      <c r="BG27" s="2"/>
+      <c r="BH27" s="2"/>
+      <c r="BI27" s="2"/>
+      <c r="BJ27" s="2"/>
+      <c r="BK27" s="2"/>
+      <c r="BL27" s="2"/>
+      <c r="BM27" s="2"/>
+      <c r="BN27" s="2"/>
+      <c r="BO27" s="2"/>
+      <c r="BP27" s="2"/>
+      <c r="BQ27" s="2"/>
+      <c r="BR27" s="2"/>
+      <c r="BS27" s="2"/>
+      <c r="BT27" s="2"/>
+      <c r="BU27" s="2"/>
+      <c r="BV27" s="2"/>
+      <c r="BW27" s="2"/>
+      <c r="BX27" s="2"/>
+      <c r="BY27" s="2"/>
+      <c r="BZ27" s="2"/>
+      <c r="CA27" s="2"/>
+      <c r="CB27" s="2"/>
+      <c r="CC27" s="2"/>
+      <c r="CD27" s="2"/>
+      <c r="CE27" s="2"/>
+      <c r="CF27" s="2"/>
+      <c r="CG27" s="2"/>
+      <c r="CH27" s="2"/>
+      <c r="CI27" s="2"/>
+      <c r="CJ27" s="2"/>
+      <c r="CK27" s="2"/>
+      <c r="CL27" s="2"/>
+      <c r="CM27" s="2"/>
+    </row>
+    <row r="28" spans="1:91" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -3174,11 +3570,11 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -3195,11 +3591,67 @@
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
-      <c r="AL28" s="2"/>
-    </row>
-    <row r="29" spans="1:91" x14ac:dyDescent="0.4">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="2"/>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
+      <c r="BJ28" s="2"/>
+      <c r="BK28" s="2"/>
+      <c r="BL28" s="2"/>
+      <c r="BM28" s="2"/>
+      <c r="BN28" s="2"/>
+      <c r="BO28" s="2"/>
+      <c r="BP28" s="2"/>
+      <c r="BQ28" s="2"/>
+      <c r="BR28" s="2"/>
+      <c r="BS28" s="2"/>
+      <c r="BT28" s="2"/>
+      <c r="BU28" s="2"/>
+      <c r="BV28" s="2"/>
+      <c r="BW28" s="2"/>
+      <c r="BX28" s="2"/>
+      <c r="BY28" s="2"/>
+      <c r="BZ28" s="2"/>
+      <c r="CA28" s="2"/>
+      <c r="CB28" s="2"/>
+      <c r="CC28" s="2"/>
+      <c r="CD28" s="2"/>
+      <c r="CE28" s="2"/>
+      <c r="CF28" s="2"/>
+      <c r="CG28" s="2"/>
+      <c r="CH28" s="2"/>
+      <c r="CI28" s="2"/>
+      <c r="CJ28" s="2"/>
+      <c r="CK28" s="2"/>
+      <c r="CL28" s="2"/>
+      <c r="CM28" s="2"/>
+    </row>
+    <row r="29" spans="1:91" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="10"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -3216,11 +3668,11 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
@@ -3234,11 +3686,65 @@
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
       <c r="AK29" s="2"/>
-      <c r="AL29" s="2"/>
-    </row>
-    <row r="30" spans="1:91" x14ac:dyDescent="0.4">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="2"/>
+      <c r="BA29" s="2"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="2"/>
+      <c r="BG29" s="2"/>
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
+      <c r="BJ29" s="2"/>
+      <c r="BK29" s="2"/>
+      <c r="BL29" s="2"/>
+      <c r="BM29" s="2"/>
+      <c r="BN29" s="2"/>
+      <c r="BO29" s="2"/>
+      <c r="BP29" s="2"/>
+      <c r="BQ29" s="2"/>
+      <c r="BR29" s="2"/>
+      <c r="BS29" s="2"/>
+      <c r="BT29" s="2"/>
+      <c r="BU29" s="2"/>
+      <c r="BV29" s="2"/>
+      <c r="BW29" s="2"/>
+      <c r="BX29" s="2"/>
+      <c r="BY29" s="2"/>
+      <c r="BZ29" s="2"/>
+      <c r="CA29" s="2"/>
+      <c r="CB29" s="2"/>
+      <c r="CC29" s="2"/>
+      <c r="CD29" s="2"/>
+      <c r="CE29" s="2"/>
+      <c r="CF29" s="2"/>
+      <c r="CG29" s="2"/>
+      <c r="CH29" s="2"/>
+      <c r="CI29" s="2"/>
+      <c r="CJ29" s="2"/>
+      <c r="CK29" s="2"/>
+      <c r="CL29" s="2"/>
+      <c r="CM29" s="2"/>
+    </row>
+    <row r="30" spans="1:91" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -3273,11 +3779,67 @@
       <c r="AI30" s="2"/>
       <c r="AJ30" s="2"/>
       <c r="AK30" s="2"/>
-      <c r="AL30" s="2"/>
-    </row>
-    <row r="31" spans="1:91" x14ac:dyDescent="0.4">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="2"/>
+      <c r="BA30" s="2"/>
+      <c r="BB30" s="2"/>
+      <c r="BC30" s="2"/>
+      <c r="BD30" s="2"/>
+      <c r="BE30" s="2"/>
+      <c r="BF30" s="2"/>
+      <c r="BG30" s="2"/>
+      <c r="BH30" s="2"/>
+      <c r="BI30" s="2"/>
+      <c r="BJ30" s="2"/>
+      <c r="BK30" s="2"/>
+      <c r="BL30" s="2"/>
+      <c r="BM30" s="2"/>
+      <c r="BN30" s="2"/>
+      <c r="BO30" s="2"/>
+      <c r="BP30" s="2"/>
+      <c r="BQ30" s="2"/>
+      <c r="BR30" s="2"/>
+      <c r="BS30" s="2"/>
+      <c r="BT30" s="2"/>
+      <c r="BU30" s="2"/>
+      <c r="BV30" s="2"/>
+      <c r="BW30" s="2"/>
+      <c r="BX30" s="2"/>
+      <c r="BY30" s="2"/>
+      <c r="BZ30" s="2"/>
+      <c r="CA30" s="2"/>
+      <c r="CB30" s="2"/>
+      <c r="CC30" s="2"/>
+      <c r="CD30" s="2"/>
+      <c r="CE30" s="2"/>
+      <c r="CF30" s="2"/>
+      <c r="CG30" s="2"/>
+      <c r="CH30" s="2"/>
+      <c r="CI30" s="2"/>
+      <c r="CJ30" s="2"/>
+      <c r="CK30" s="2"/>
+      <c r="CL30" s="2"/>
+      <c r="CM30" s="2"/>
+    </row>
+    <row r="31" spans="1:91" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="10"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -3297,12 +3859,12 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
@@ -3312,11 +3874,65 @@
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
-      <c r="AL31" s="2"/>
-    </row>
-    <row r="32" spans="1:91" x14ac:dyDescent="0.4">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="2"/>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2"/>
+      <c r="AZ31" s="2"/>
+      <c r="BA31" s="2"/>
+      <c r="BB31" s="2"/>
+      <c r="BC31" s="2"/>
+      <c r="BD31" s="2"/>
+      <c r="BE31" s="2"/>
+      <c r="BF31" s="2"/>
+      <c r="BG31" s="2"/>
+      <c r="BH31" s="2"/>
+      <c r="BI31" s="2"/>
+      <c r="BJ31" s="2"/>
+      <c r="BK31" s="2"/>
+      <c r="BL31" s="2"/>
+      <c r="BM31" s="2"/>
+      <c r="BN31" s="2"/>
+      <c r="BO31" s="2"/>
+      <c r="BP31" s="2"/>
+      <c r="BQ31" s="2"/>
+      <c r="BR31" s="2"/>
+      <c r="BS31" s="2"/>
+      <c r="BT31" s="2"/>
+      <c r="BU31" s="2"/>
+      <c r="BV31" s="2"/>
+      <c r="BW31" s="2"/>
+      <c r="BX31" s="2"/>
+      <c r="BY31" s="2"/>
+      <c r="BZ31" s="2"/>
+      <c r="CA31" s="2"/>
+      <c r="CB31" s="2"/>
+      <c r="CC31" s="2"/>
+      <c r="CD31" s="2"/>
+      <c r="CE31" s="2"/>
+      <c r="CF31" s="2"/>
+      <c r="CG31" s="2"/>
+      <c r="CH31" s="2"/>
+      <c r="CI31" s="2"/>
+      <c r="CJ31" s="2"/>
+      <c r="CK31" s="2"/>
+      <c r="CL31" s="2"/>
+      <c r="CM31" s="2"/>
+    </row>
+    <row r="32" spans="1:91" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3336,13 +3952,13 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="21"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
@@ -3351,11 +3967,67 @@
       <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
-      <c r="AL32" s="2"/>
-    </row>
-    <row r="33" spans="2:38" x14ac:dyDescent="0.4">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="AL32" s="11"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="2"/>
+      <c r="AV32" s="2"/>
+      <c r="AW32" s="2"/>
+      <c r="AX32" s="2"/>
+      <c r="AY32" s="2"/>
+      <c r="AZ32" s="2"/>
+      <c r="BA32" s="2"/>
+      <c r="BB32" s="2"/>
+      <c r="BC32" s="2"/>
+      <c r="BD32" s="2"/>
+      <c r="BE32" s="2"/>
+      <c r="BF32" s="2"/>
+      <c r="BG32" s="2"/>
+      <c r="BH32" s="2"/>
+      <c r="BI32" s="2"/>
+      <c r="BJ32" s="2"/>
+      <c r="BK32" s="2"/>
+      <c r="BL32" s="2"/>
+      <c r="BM32" s="2"/>
+      <c r="BN32" s="2"/>
+      <c r="BO32" s="2"/>
+      <c r="BP32" s="2"/>
+      <c r="BQ32" s="2"/>
+      <c r="BR32" s="2"/>
+      <c r="BS32" s="2"/>
+      <c r="BT32" s="2"/>
+      <c r="BU32" s="2"/>
+      <c r="BV32" s="2"/>
+      <c r="BW32" s="2"/>
+      <c r="BX32" s="2"/>
+      <c r="BY32" s="2"/>
+      <c r="BZ32" s="2"/>
+      <c r="CA32" s="2"/>
+      <c r="CB32" s="2"/>
+      <c r="CC32" s="2"/>
+      <c r="CD32" s="2"/>
+      <c r="CE32" s="2"/>
+      <c r="CF32" s="2"/>
+      <c r="CG32" s="2"/>
+      <c r="CH32" s="2"/>
+      <c r="CI32" s="2"/>
+      <c r="CJ32" s="2"/>
+      <c r="CK32" s="2"/>
+      <c r="CL32" s="2"/>
+      <c r="CM32" s="2"/>
+    </row>
+    <row r="33" spans="1:91" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="10"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -3381,8 +4053,8 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
@@ -3390,11 +4062,65 @@
       <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
-      <c r="AL33" s="2"/>
-    </row>
-    <row r="34" spans="2:38" x14ac:dyDescent="0.4">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="2"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="2"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="2"/>
+      <c r="BK33" s="2"/>
+      <c r="BL33" s="2"/>
+      <c r="BM33" s="2"/>
+      <c r="BN33" s="2"/>
+      <c r="BO33" s="2"/>
+      <c r="BP33" s="2"/>
+      <c r="BQ33" s="2"/>
+      <c r="BR33" s="2"/>
+      <c r="BS33" s="2"/>
+      <c r="BT33" s="2"/>
+      <c r="BU33" s="2"/>
+      <c r="BV33" s="2"/>
+      <c r="BW33" s="2"/>
+      <c r="BX33" s="2"/>
+      <c r="BY33" s="2"/>
+      <c r="BZ33" s="2"/>
+      <c r="CA33" s="2"/>
+      <c r="CB33" s="2"/>
+      <c r="CC33" s="2"/>
+      <c r="CD33" s="2"/>
+      <c r="CE33" s="2"/>
+      <c r="CF33" s="2"/>
+      <c r="CG33" s="2"/>
+      <c r="CH33" s="2"/>
+      <c r="CI33" s="2"/>
+      <c r="CJ33" s="2"/>
+      <c r="CK33" s="2"/>
+      <c r="CL33" s="2"/>
+      <c r="CM33" s="2"/>
+    </row>
+    <row r="34" spans="1:91" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -3429,11 +4155,66 @@
       <c r="AI34" s="2"/>
       <c r="AJ34" s="2"/>
       <c r="AK34" s="2"/>
-      <c r="AL34" s="2"/>
-    </row>
-    <row r="35" spans="2:38" x14ac:dyDescent="0.4">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="2"/>
+      <c r="AW34" s="2"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2"/>
+      <c r="AZ34" s="2"/>
+      <c r="BA34" s="2"/>
+      <c r="BB34" s="2"/>
+      <c r="BC34" s="2"/>
+      <c r="BD34" s="2"/>
+      <c r="BE34" s="2"/>
+      <c r="BF34" s="2"/>
+      <c r="BG34" s="2"/>
+      <c r="BH34" s="2"/>
+      <c r="BI34" s="2"/>
+      <c r="BJ34" s="2"/>
+      <c r="BK34" s="2"/>
+      <c r="BL34" s="2"/>
+      <c r="BM34" s="2"/>
+      <c r="BN34" s="2"/>
+      <c r="BO34" s="2"/>
+      <c r="BP34" s="2"/>
+      <c r="BQ34" s="2"/>
+      <c r="BR34" s="2"/>
+      <c r="BS34" s="2"/>
+      <c r="BT34" s="2"/>
+      <c r="BU34" s="2"/>
+      <c r="BV34" s="2"/>
+      <c r="BW34" s="2"/>
+      <c r="BX34" s="2"/>
+      <c r="BY34" s="2"/>
+      <c r="BZ34" s="2"/>
+      <c r="CA34" s="2"/>
+      <c r="CB34" s="2"/>
+      <c r="CC34" s="2"/>
+      <c r="CD34" s="2"/>
+      <c r="CE34" s="2"/>
+      <c r="CF34" s="2"/>
+      <c r="CG34" s="2"/>
+      <c r="CH34" s="2"/>
+      <c r="CI34" s="2"/>
+      <c r="CJ34" s="2"/>
+      <c r="CK34" s="2"/>
+      <c r="CL34" s="2"/>
+      <c r="CM34" s="2"/>
+    </row>
+    <row r="35" spans="1:91" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="10"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -3468,243 +4249,249 @@
       <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
       <c r="AK35" s="2"/>
-      <c r="AL35" s="2"/>
-    </row>
-    <row r="36" spans="2:38" x14ac:dyDescent="0.4">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="AL35" s="11"/>
+    </row>
+    <row r="36" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
       <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
       <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
-      <c r="AH36" s="2"/>
-      <c r="AI36" s="2"/>
-      <c r="AJ36" s="2"/>
-      <c r="AK36" s="2"/>
-      <c r="AL36" s="2"/>
-    </row>
-    <row r="37" spans="2:38" x14ac:dyDescent="0.4">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="26"/>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="11"/>
+    </row>
+    <row r="37" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="44"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
       <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="26"/>
       <c r="AE37" s="2"/>
-      <c r="AF37" s="2"/>
-      <c r="AG37" s="2"/>
-      <c r="AH37" s="2"/>
-      <c r="AI37" s="2"/>
-      <c r="AJ37" s="2"/>
-      <c r="AK37" s="2"/>
-      <c r="AL37" s="2"/>
-    </row>
-    <row r="38" spans="2:38" x14ac:dyDescent="0.4">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="AF37" s="26"/>
+      <c r="AG37" s="26"/>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="26"/>
+      <c r="AJ37" s="26"/>
+      <c r="AK37" s="26"/>
+      <c r="AL37" s="11"/>
+    </row>
+    <row r="38" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
       <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="2"/>
-      <c r="AI38" s="2"/>
-      <c r="AJ38" s="2"/>
-      <c r="AK38" s="2"/>
-      <c r="AL38" s="2"/>
-    </row>
-    <row r="39" spans="2:38" x14ac:dyDescent="0.4">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="27"/>
+      <c r="AE38" s="19"/>
+      <c r="AF38" s="27"/>
+      <c r="AG38" s="27"/>
+      <c r="AH38" s="27"/>
+      <c r="AI38" s="27"/>
+      <c r="AJ38" s="27"/>
+      <c r="AK38" s="26"/>
+      <c r="AL38" s="11"/>
+    </row>
+    <row r="39" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="44"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
       <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="2"/>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="2"/>
-      <c r="AK39" s="2"/>
-      <c r="AL39" s="2"/>
-    </row>
-    <row r="40" spans="2:38" x14ac:dyDescent="0.4">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="28"/>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="29"/>
+      <c r="AI39" s="29"/>
+      <c r="AJ39" s="26"/>
+      <c r="AK39" s="26"/>
+      <c r="AL39" s="11"/>
+    </row>
+    <row r="40" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
       <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="26"/>
       <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
-      <c r="AG40" s="2"/>
-      <c r="AH40" s="2"/>
-      <c r="AI40" s="2"/>
-      <c r="AJ40" s="2"/>
-      <c r="AK40" s="2"/>
-      <c r="AL40" s="2"/>
-    </row>
-    <row r="41" spans="2:38" x14ac:dyDescent="0.4">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="2"/>
-      <c r="AD41" s="2"/>
-      <c r="AE41" s="2"/>
-      <c r="AF41" s="2"/>
-      <c r="AG41" s="2"/>
-      <c r="AH41" s="2"/>
-      <c r="AI41" s="2"/>
-      <c r="AJ41" s="2"/>
-      <c r="AK41" s="2"/>
-      <c r="AL41" s="2"/>
-    </row>
-    <row r="42" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="40"/>
+      <c r="AK40" s="40"/>
+      <c r="AL40" s="41"/>
+    </row>
+    <row r="41" spans="1:91" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="44"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="38"/>
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="38"/>
+      <c r="AB41" s="38"/>
+      <c r="AC41" s="38"/>
+      <c r="AD41" s="38"/>
+      <c r="AE41" s="13"/>
+      <c r="AF41" s="38"/>
+      <c r="AG41" s="38"/>
+      <c r="AH41" s="38"/>
+      <c r="AI41" s="38"/>
+      <c r="AJ41" s="38"/>
+      <c r="AK41" s="38"/>
+      <c r="AL41" s="32"/>
+    </row>
+    <row r="42" spans="1:91" x14ac:dyDescent="0.4">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -3743,46 +4530,56 @@
       <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
     </row>
-    <row r="43" spans="2:38" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:91" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="D43" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
+      <c r="K43" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
+      <c r="R43" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="S43" s="54"/>
+      <c r="T43" s="54"/>
+      <c r="U43" s="54"/>
+      <c r="V43" s="54"/>
+      <c r="W43" s="54"/>
       <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
+      <c r="Y43" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z43" s="55"/>
+      <c r="AA43" s="55"/>
+      <c r="AB43" s="55"/>
+      <c r="AC43" s="55"/>
+      <c r="AD43" s="55"/>
       <c r="AE43" s="2"/>
-      <c r="AF43" s="2"/>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="2"/>
-      <c r="AI43" s="2"/>
-      <c r="AJ43" s="2"/>
-      <c r="AK43" s="2"/>
+      <c r="AF43" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG43" s="51"/>
+      <c r="AH43" s="51"/>
+      <c r="AI43" s="51"/>
+      <c r="AJ43" s="51"/>
+      <c r="AK43" s="51"/>
       <c r="AL43" s="2"/>
     </row>
-    <row r="44" spans="2:38" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:91" x14ac:dyDescent="0.4">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3821,7 +4618,7 @@
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
     </row>
-    <row r="45" spans="2:38" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:91" x14ac:dyDescent="0.4">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -3860,7 +4657,7 @@
       <c r="AK45" s="2"/>
       <c r="AL45" s="2"/>
     </row>
-    <row r="46" spans="2:38" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:91" x14ac:dyDescent="0.4">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -3899,7 +4696,7 @@
       <c r="AK46" s="2"/>
       <c r="AL46" s="2"/>
     </row>
-    <row r="47" spans="2:38" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:91" x14ac:dyDescent="0.4">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -3938,7 +4735,7 @@
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
     </row>
-    <row r="48" spans="2:38" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:91" x14ac:dyDescent="0.4">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -4954,21 +5751,643 @@
     </row>
     <row r="74" spans="2:38" x14ac:dyDescent="0.4">
       <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="2"/>
+      <c r="AD74" s="2"/>
+      <c r="AE74" s="2"/>
+      <c r="AF74" s="2"/>
+      <c r="AG74" s="2"/>
+      <c r="AH74" s="2"/>
+      <c r="AI74" s="2"/>
+      <c r="AJ74" s="2"/>
+      <c r="AK74" s="2"/>
+      <c r="AL74" s="2"/>
     </row>
     <row r="75" spans="2:38" x14ac:dyDescent="0.4">
       <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="2"/>
+      <c r="AF75" s="2"/>
+      <c r="AG75" s="2"/>
+      <c r="AH75" s="2"/>
+      <c r="AI75" s="2"/>
+      <c r="AJ75" s="2"/>
+      <c r="AK75" s="2"/>
+      <c r="AL75" s="2"/>
     </row>
     <row r="76" spans="2:38" x14ac:dyDescent="0.4">
       <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
+      <c r="AD76" s="2"/>
+      <c r="AE76" s="2"/>
+      <c r="AF76" s="2"/>
+      <c r="AG76" s="2"/>
+      <c r="AH76" s="2"/>
+      <c r="AI76" s="2"/>
+      <c r="AJ76" s="2"/>
+      <c r="AK76" s="2"/>
+      <c r="AL76" s="2"/>
     </row>
     <row r="77" spans="2:38" x14ac:dyDescent="0.4">
       <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="2"/>
+      <c r="AD77" s="2"/>
+      <c r="AE77" s="2"/>
+      <c r="AF77" s="2"/>
+      <c r="AG77" s="2"/>
+      <c r="AH77" s="2"/>
+      <c r="AI77" s="2"/>
+      <c r="AJ77" s="2"/>
+      <c r="AK77" s="2"/>
+      <c r="AL77" s="2"/>
+    </row>
+    <row r="78" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+      <c r="AD78" s="2"/>
+      <c r="AE78" s="2"/>
+      <c r="AF78" s="2"/>
+      <c r="AG78" s="2"/>
+      <c r="AH78" s="2"/>
+      <c r="AI78" s="2"/>
+      <c r="AJ78" s="2"/>
+      <c r="AK78" s="2"/>
+      <c r="AL78" s="2"/>
+    </row>
+    <row r="79" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2"/>
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="2"/>
+      <c r="AC79" s="2"/>
+      <c r="AD79" s="2"/>
+      <c r="AE79" s="2"/>
+      <c r="AF79" s="2"/>
+      <c r="AG79" s="2"/>
+      <c r="AH79" s="2"/>
+      <c r="AI79" s="2"/>
+      <c r="AJ79" s="2"/>
+      <c r="AK79" s="2"/>
+      <c r="AL79" s="2"/>
+    </row>
+    <row r="80" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
+      <c r="AB80" s="2"/>
+      <c r="AC80" s="2"/>
+      <c r="AD80" s="2"/>
+      <c r="AE80" s="2"/>
+      <c r="AF80" s="2"/>
+      <c r="AG80" s="2"/>
+      <c r="AH80" s="2"/>
+      <c r="AI80" s="2"/>
+      <c r="AJ80" s="2"/>
+      <c r="AK80" s="2"/>
+      <c r="AL80" s="2"/>
+    </row>
+    <row r="81" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="2"/>
+      <c r="AA81" s="2"/>
+      <c r="AB81" s="2"/>
+      <c r="AC81" s="2"/>
+      <c r="AD81" s="2"/>
+      <c r="AE81" s="2"/>
+      <c r="AF81" s="2"/>
+      <c r="AG81" s="2"/>
+      <c r="AH81" s="2"/>
+      <c r="AI81" s="2"/>
+      <c r="AJ81" s="2"/>
+      <c r="AK81" s="2"/>
+      <c r="AL81" s="2"/>
+    </row>
+    <row r="82" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
+      <c r="AB82" s="2"/>
+      <c r="AC82" s="2"/>
+      <c r="AD82" s="2"/>
+      <c r="AE82" s="2"/>
+      <c r="AF82" s="2"/>
+      <c r="AG82" s="2"/>
+      <c r="AH82" s="2"/>
+      <c r="AI82" s="2"/>
+      <c r="AJ82" s="2"/>
+      <c r="AK82" s="2"/>
+      <c r="AL82" s="2"/>
+    </row>
+    <row r="83" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="2"/>
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="2"/>
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="2"/>
+      <c r="AG83" s="2"/>
+      <c r="AH83" s="2"/>
+      <c r="AI83" s="2"/>
+      <c r="AJ83" s="2"/>
+      <c r="AK83" s="2"/>
+      <c r="AL83" s="2"/>
+    </row>
+    <row r="84" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
+      <c r="AB84" s="2"/>
+      <c r="AC84" s="2"/>
+      <c r="AD84" s="2"/>
+      <c r="AE84" s="2"/>
+      <c r="AF84" s="2"/>
+      <c r="AG84" s="2"/>
+      <c r="AH84" s="2"/>
+      <c r="AI84" s="2"/>
+      <c r="AJ84" s="2"/>
+      <c r="AK84" s="2"/>
+      <c r="AL84" s="2"/>
+    </row>
+    <row r="85" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="2"/>
+      <c r="AC85" s="2"/>
+      <c r="AD85" s="2"/>
+      <c r="AE85" s="2"/>
+      <c r="AF85" s="2"/>
+      <c r="AG85" s="2"/>
+      <c r="AH85" s="2"/>
+      <c r="AI85" s="2"/>
+      <c r="AJ85" s="2"/>
+      <c r="AK85" s="2"/>
+      <c r="AL85" s="2"/>
+    </row>
+    <row r="86" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="2"/>
+      <c r="AA86" s="2"/>
+      <c r="AB86" s="2"/>
+      <c r="AC86" s="2"/>
+      <c r="AD86" s="2"/>
+      <c r="AE86" s="2"/>
+      <c r="AF86" s="2"/>
+      <c r="AG86" s="2"/>
+      <c r="AH86" s="2"/>
+      <c r="AI86" s="2"/>
+      <c r="AJ86" s="2"/>
+      <c r="AK86" s="2"/>
+      <c r="AL86" s="2"/>
+    </row>
+    <row r="87" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
+      <c r="AA87" s="2"/>
+      <c r="AB87" s="2"/>
+      <c r="AC87" s="2"/>
+      <c r="AD87" s="2"/>
+      <c r="AE87" s="2"/>
+      <c r="AF87" s="2"/>
+      <c r="AG87" s="2"/>
+      <c r="AH87" s="2"/>
+      <c r="AI87" s="2"/>
+      <c r="AJ87" s="2"/>
+      <c r="AK87" s="2"/>
+      <c r="AL87" s="2"/>
+    </row>
+    <row r="88" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="2"/>
+      <c r="AA88" s="2"/>
+      <c r="AB88" s="2"/>
+      <c r="AC88" s="2"/>
+      <c r="AD88" s="2"/>
+      <c r="AE88" s="2"/>
+      <c r="AF88" s="2"/>
+      <c r="AG88" s="2"/>
+      <c r="AH88" s="2"/>
+      <c r="AI88" s="2"/>
+      <c r="AJ88" s="2"/>
+      <c r="AK88" s="2"/>
+      <c r="AL88" s="2"/>
+    </row>
+    <row r="89" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
+      <c r="AA89" s="2"/>
+      <c r="AB89" s="2"/>
+      <c r="AC89" s="2"/>
+      <c r="AD89" s="2"/>
+      <c r="AE89" s="2"/>
+      <c r="AF89" s="2"/>
+      <c r="AG89" s="2"/>
+      <c r="AH89" s="2"/>
+      <c r="AI89" s="2"/>
+      <c r="AJ89" s="2"/>
+      <c r="AK89" s="2"/>
+      <c r="AL89" s="2"/>
+    </row>
+    <row r="90" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="2:38" x14ac:dyDescent="0.4">
+      <c r="B93" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="29">
     <mergeCell ref="B2:AL2"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C7:H7"/>
     <mergeCell ref="B3:AL3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:I4"/>
@@ -4976,14 +6395,27 @@
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="AF27:AK27"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="Y27:AD27"/>
+    <mergeCell ref="AF43:AK43"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="K43:P43"/>
+    <mergeCell ref="R43:W43"/>
+    <mergeCell ref="Y43:AD43"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
